--- a/outputs-HGR-r202/test-g__Sutterella_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Sutterella_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Row</t>
   </si>
@@ -22,15 +22,30 @@
     <t>even_MAG-GUT12361.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12482.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12794.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12944.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13480.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13816.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT14172.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14572.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16149.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT16715.fa</t>
   </si>
   <si>
@@ -52,6 +67,9 @@
     <t>even_MAG-GUT24606.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24616.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT24787.fa</t>
   </si>
   <si>
@@ -70,6 +88,9 @@
     <t>even_MAG-GUT27097.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT30085.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32354.fa</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>even_MAG-GUT37939.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39108.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3922.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39460.fa</t>
   </si>
   <si>
@@ -139,6 +166,9 @@
     <t>even_MAG-GUT68996.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT69662.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7016.fa</t>
   </si>
   <si>
@@ -146,6 +176,15 @@
   </si>
   <si>
     <t>even_MAG-GUT74311.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80384.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80720.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80804.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT81204.fa</t>
@@ -217,7 +256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -234,22 +273,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -280,19 +319,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.006337944896421966</v>
+        <v>0.0037427379094919673</v>
       </c>
       <c r="C3">
-        <v>4.2719591786712288e-05</v>
+        <v>0.00092338055944458854</v>
       </c>
       <c r="D3">
-        <v>0.05557355960098917</v>
+        <v>0.051476500593061809</v>
       </c>
       <c r="E3">
-        <v>0.90650843920997393</v>
+        <v>0.91195251728998272</v>
       </c>
       <c r="F3">
-        <v>0.0315373367008282</v>
+        <v>0.031904863648018901</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -303,19 +342,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0040675732436816743</v>
+        <v>0.006337944896421966</v>
       </c>
       <c r="C4">
-        <v>0.00016552213029165369</v>
+        <v>4.2719591786712288e-05</v>
       </c>
       <c r="D4">
-        <v>0.047552494037105403</v>
+        <v>0.05557355960098917</v>
       </c>
       <c r="E4">
-        <v>0.91853792169445481</v>
+        <v>0.90650843920997393</v>
       </c>
       <c r="F4">
-        <v>0.029676488894466446</v>
+        <v>0.0315373367008282</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -326,19 +365,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0038953057592889286</v>
+        <v>0.0051269325929848269</v>
       </c>
       <c r="C5">
-        <v>0.0001395777815003803</v>
+        <v>5.2984281278751856e-05</v>
       </c>
       <c r="D5">
-        <v>0.059479992702489583</v>
+        <v>0.082145616291621065</v>
       </c>
       <c r="E5">
-        <v>0.90705312375825775</v>
+        <v>0.88139794567527441</v>
       </c>
       <c r="F5">
-        <v>0.029431999998463382</v>
+        <v>0.031276521158840935</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -349,19 +388,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0049473834986303684</v>
+        <v>0.0040675732436816743</v>
       </c>
       <c r="C6">
-        <v>0.00036432658490389783</v>
+        <v>0.00016552213029165369</v>
       </c>
       <c r="D6">
-        <v>0.060508032749806741</v>
+        <v>0.047552494037105403</v>
       </c>
       <c r="E6">
-        <v>0.90330087004270665</v>
+        <v>0.91853792169445481</v>
       </c>
       <c r="F6">
-        <v>0.030879387123952346</v>
+        <v>0.029676488894466446</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -372,19 +411,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0046669527031817518</v>
+        <v>0.0049059428685520627</v>
       </c>
       <c r="C7">
-        <v>2.7934832559512218e-05</v>
+        <v>0.0015696998874331488</v>
       </c>
       <c r="D7">
-        <v>0.05769593778519088</v>
+        <v>0.060473155046170728</v>
       </c>
       <c r="E7">
-        <v>0.90882121398309201</v>
+        <v>0.89856821775259921</v>
       </c>
       <c r="F7">
-        <v>0.028787960695975851</v>
+        <v>0.034482984445244884</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -395,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0042497711398845695</v>
+        <v>0.0038953057592889286</v>
       </c>
       <c r="C8">
-        <v>0.0011511086747504227</v>
+        <v>0.0001395777815003803</v>
       </c>
       <c r="D8">
-        <v>0.076120350180843649</v>
+        <v>0.059479992702489583</v>
       </c>
       <c r="E8">
-        <v>0.88321869302150313</v>
+        <v>0.90705312375825775</v>
       </c>
       <c r="F8">
-        <v>0.035260076983018182</v>
+        <v>0.029431999998463382</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -418,19 +457,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.0051952373942044964</v>
+        <v>0.0056351319052714514</v>
       </c>
       <c r="C9">
-        <v>0.0025098357526641981</v>
+        <v>0.0011354632684234269</v>
       </c>
       <c r="D9">
-        <v>0.064807173122102393</v>
+        <v>0.049593090552810075</v>
       </c>
       <c r="E9">
-        <v>0.89037386496159865</v>
+        <v>0.91164686764508196</v>
       </c>
       <c r="F9">
-        <v>0.037113888769430198</v>
+        <v>0.031989446628413166</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -441,19 +480,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0049069752458375838</v>
+        <v>0.012090285993433271</v>
       </c>
       <c r="C10">
-        <v>0.00029406953481548204</v>
+        <v>0.008876935157518414</v>
       </c>
       <c r="D10">
-        <v>0.061777765168620137</v>
+        <v>0.1109462404498858</v>
       </c>
       <c r="E10">
-        <v>0.90228498150848979</v>
+        <v>0.80956011650213566</v>
       </c>
       <c r="F10">
-        <v>0.030736208542237069</v>
+        <v>0.058526421897026885</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -464,19 +503,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.0043025076772464522</v>
+        <v>0.0049473834986303684</v>
       </c>
       <c r="C11">
-        <v>0.0011832421631905103</v>
+        <v>0.00036432658490389783</v>
       </c>
       <c r="D11">
-        <v>0.070010420015752001</v>
+        <v>0.060508032749806741</v>
       </c>
       <c r="E11">
-        <v>0.88956983740089079</v>
+        <v>0.90330087004270665</v>
       </c>
       <c r="F11">
-        <v>0.034933992742920188</v>
+        <v>0.030879387123952346</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -487,19 +526,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.004913956534899659</v>
+        <v>0.0046669527031817518</v>
       </c>
       <c r="C12">
-        <v>0.0016110272204584092</v>
+        <v>2.7934832559512218e-05</v>
       </c>
       <c r="D12">
-        <v>0.081738974223444061</v>
+        <v>0.05769593778519088</v>
       </c>
       <c r="E12">
-        <v>0.87375137153091254</v>
+        <v>0.90882121398309201</v>
       </c>
       <c r="F12">
-        <v>0.037984670490285415</v>
+        <v>0.028787960695975851</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -510,19 +549,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.00479794688754249</v>
+        <v>0.0042497711398845695</v>
       </c>
       <c r="C13">
-        <v>0.00013319265055479595</v>
+        <v>0.0011511086747504227</v>
       </c>
       <c r="D13">
-        <v>0.063304457998276248</v>
+        <v>0.076120350180843649</v>
       </c>
       <c r="E13">
-        <v>0.9020904302868491</v>
+        <v>0.88321869302150313</v>
       </c>
       <c r="F13">
-        <v>0.029673972176777433</v>
+        <v>0.035260076983018182</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -533,19 +572,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.0056907123365870322</v>
+        <v>0.0051952373942044964</v>
       </c>
       <c r="C14">
-        <v>0.001696349150385736</v>
+        <v>0.0025098357526641981</v>
       </c>
       <c r="D14">
-        <v>0.064839523326365084</v>
+        <v>0.064807173122102393</v>
       </c>
       <c r="E14">
-        <v>0.89273672174183805</v>
+        <v>0.89037386496159865</v>
       </c>
       <c r="F14">
-        <v>0.035036693444824032</v>
+        <v>0.037113888769430198</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -556,19 +595,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0064986261902568142</v>
+        <v>0.0049069752458375838</v>
       </c>
       <c r="C15">
-        <v>0.0034523969270539661</v>
+        <v>0.00029406953481548204</v>
       </c>
       <c r="D15">
-        <v>0.076759482892779951</v>
+        <v>0.061777765168620137</v>
       </c>
       <c r="E15">
-        <v>0.87324617129787863</v>
+        <v>0.90228498150848979</v>
       </c>
       <c r="F15">
-        <v>0.04004332269203055</v>
+        <v>0.030736208542237069</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -579,19 +618,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.0049174242179822504</v>
+        <v>0.0043025076772464522</v>
       </c>
       <c r="C16">
-        <v>0.0013234726258927268</v>
+        <v>0.0011832421631905103</v>
       </c>
       <c r="D16">
-        <v>0.063947290060888201</v>
+        <v>0.070010420015752001</v>
       </c>
       <c r="E16">
-        <v>0.89659583972627521</v>
+        <v>0.88956983740089079</v>
       </c>
       <c r="F16">
-        <v>0.033215973368961656</v>
+        <v>0.034933992742920188</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -602,19 +641,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.0089661765869499203</v>
+        <v>0.004913956534899659</v>
       </c>
       <c r="C17">
-        <v>3.5614791499890269e-05</v>
+        <v>0.0016110272204584092</v>
       </c>
       <c r="D17">
-        <v>0.091922268195173171</v>
+        <v>0.081738974223444061</v>
       </c>
       <c r="E17">
-        <v>0.86544395894601422</v>
+        <v>0.87375137153091254</v>
       </c>
       <c r="F17">
-        <v>0.033631981480362831</v>
+        <v>0.037984670490285415</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -625,19 +664,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.0042678651619414186</v>
+        <v>0.0061758280519038601</v>
       </c>
       <c r="C18">
-        <v>0.00092602860226958215</v>
+        <v>0.0022770808392447561</v>
       </c>
       <c r="D18">
-        <v>0.074712001670061076</v>
+        <v>0.055971998559081498</v>
       </c>
       <c r="E18">
-        <v>0.88459192578803369</v>
+        <v>0.90039885982321433</v>
       </c>
       <c r="F18">
-        <v>0.035502178777694224</v>
+        <v>0.035176232726555554</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -648,19 +687,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.0050720451407267357</v>
+        <v>0.00479794688754249</v>
       </c>
       <c r="C19">
-        <v>0.00031343518460026317</v>
+        <v>0.00013319265055479595</v>
       </c>
       <c r="D19">
-        <v>0.054132860872659304</v>
+        <v>0.063304457998276248</v>
       </c>
       <c r="E19">
-        <v>0.9106824832154593</v>
+        <v>0.9020904302868491</v>
       </c>
       <c r="F19">
-        <v>0.029799175586554399</v>
+        <v>0.029673972176777433</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -671,19 +710,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.0051922522856663227</v>
+        <v>0.0056907123365870322</v>
       </c>
       <c r="C20">
-        <v>0.00026219046682479435</v>
+        <v>0.001696349150385736</v>
       </c>
       <c r="D20">
-        <v>0.050095119497051942</v>
+        <v>0.064839523326365084</v>
       </c>
       <c r="E20">
-        <v>0.91407378237021131</v>
+        <v>0.89273672174183805</v>
       </c>
       <c r="F20">
-        <v>0.030376655380245608</v>
+        <v>0.035036693444824032</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -694,19 +733,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.0040367880411648792</v>
+        <v>0.0064986261902568142</v>
       </c>
       <c r="C21">
-        <v>0.00060789325586253946</v>
+        <v>0.0034523969270539661</v>
       </c>
       <c r="D21">
-        <v>0.064820255002942737</v>
+        <v>0.076759482892779951</v>
       </c>
       <c r="E21">
-        <v>0.89845148920452589</v>
+        <v>0.87324617129787863</v>
       </c>
       <c r="F21">
-        <v>0.032083574495503926</v>
+        <v>0.04004332269203055</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -717,19 +756,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0052140916057506681</v>
+        <v>0.0049174242179822504</v>
       </c>
       <c r="C22">
-        <v>0.00073646271890306545</v>
+        <v>0.0013234726258927268</v>
       </c>
       <c r="D22">
-        <v>0.056783077623513582</v>
+        <v>0.063947290060888201</v>
       </c>
       <c r="E22">
-        <v>0.9052583132428158</v>
+        <v>0.89659583972627521</v>
       </c>
       <c r="F22">
-        <v>0.032008054809016848</v>
+        <v>0.033215973368961656</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -740,19 +779,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.0051912301104851356</v>
+        <v>0.0089661765869499203</v>
       </c>
       <c r="C23">
-        <v>0.00013970109606603576</v>
+        <v>3.5614791499890269e-05</v>
       </c>
       <c r="D23">
-        <v>0.062556459873269146</v>
+        <v>0.091922268195173171</v>
       </c>
       <c r="E23">
-        <v>0.90144907267737184</v>
+        <v>0.86544395894601422</v>
       </c>
       <c r="F23">
-        <v>0.030663536242807946</v>
+        <v>0.033631981480362831</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -763,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0076463811884169789</v>
+        <v>0.0042678651619414186</v>
       </c>
       <c r="C24">
-        <v>0.0015304683968286293</v>
+        <v>0.00092602860226958215</v>
       </c>
       <c r="D24">
-        <v>0.052530477737640191</v>
+        <v>0.074712001670061076</v>
       </c>
       <c r="E24">
-        <v>0.90561756437370255</v>
+        <v>0.88459192578803369</v>
       </c>
       <c r="F24">
-        <v>0.032675108303411741</v>
+        <v>0.035502178777694224</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -786,19 +825,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.0057133803779319745</v>
+        <v>0.0082907582277703309</v>
       </c>
       <c r="C25">
-        <v>0.00061517994727783938</v>
+        <v>0.0016585099779729739</v>
       </c>
       <c r="D25">
-        <v>0.059857501295674735</v>
+        <v>0.041782515065614416</v>
       </c>
       <c r="E25">
-        <v>0.90112776812389106</v>
+        <v>0.91580502413980958</v>
       </c>
       <c r="F25">
-        <v>0.032686170255224314</v>
+        <v>0.032463192588832727</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -809,19 +848,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.0039384637132327972</v>
+        <v>0.0050720451407267357</v>
       </c>
       <c r="C26">
-        <v>3.3463485243782543e-06</v>
+        <v>0.00031343518460026317</v>
       </c>
       <c r="D26">
-        <v>0.063143074434831331</v>
+        <v>0.054132860872659304</v>
       </c>
       <c r="E26">
-        <v>0.90493644701851716</v>
+        <v>0.9106824832154593</v>
       </c>
       <c r="F26">
-        <v>0.027978668484894241</v>
+        <v>0.029799175586554399</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -832,19 +871,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.0082203870049612892</v>
+        <v>0.0051922522856663227</v>
       </c>
       <c r="C27">
-        <v>0.0019354455751872781</v>
+        <v>0.00026219046682479435</v>
       </c>
       <c r="D27">
-        <v>0.059631426396630452</v>
+        <v>0.050095119497051942</v>
       </c>
       <c r="E27">
-        <v>0.89398757674171569</v>
+        <v>0.91407378237021131</v>
       </c>
       <c r="F27">
-        <v>0.036225164281505427</v>
+        <v>0.030376655380245608</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -855,19 +894,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.0030962475551417619</v>
+        <v>0.0040367880411648792</v>
       </c>
       <c r="C28">
-        <v>1.5895607303841736e-05</v>
+        <v>0.00060789325586253946</v>
       </c>
       <c r="D28">
-        <v>0.058568415757346275</v>
+        <v>0.064820255002942737</v>
       </c>
       <c r="E28">
-        <v>0.91037948910686339</v>
+        <v>0.89845148920452589</v>
       </c>
       <c r="F28">
-        <v>0.027939951973344715</v>
+        <v>0.032083574495503926</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -878,22 +917,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0035245312210869504</v>
+        <v>0.080792669323084168</v>
       </c>
       <c r="C29">
-        <v>0.00014292519946371184</v>
+        <v>0.37850992221879298</v>
       </c>
       <c r="D29">
-        <v>0.061417664136054269</v>
+        <v>0.23909076140342136</v>
       </c>
       <c r="E29">
-        <v>0.90497127047600634</v>
+        <v>0.12223097882223932</v>
       </c>
       <c r="F29">
-        <v>0.029943608967388638</v>
+        <v>0.17937566823246209</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -901,22 +940,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.005640508899708992</v>
+        <v>0.058937888484354717</v>
       </c>
       <c r="C30">
-        <v>8.6300254855017973e-05</v>
+        <v>0.30439111791674434</v>
       </c>
       <c r="D30">
-        <v>0.052519948304493337</v>
+        <v>0.2258907645204779</v>
       </c>
       <c r="E30">
-        <v>0.91263902003659714</v>
+        <v>0.24618472183376358</v>
       </c>
       <c r="F30">
-        <v>0.029114222504345526</v>
+        <v>0.16459550724465941</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -924,19 +963,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.0046560683155829653</v>
+        <v>0.0052140916057506681</v>
       </c>
       <c r="C31">
-        <v>0.00014259588306226407</v>
+        <v>0.00073646271890306545</v>
       </c>
       <c r="D31">
-        <v>0.063051385475404287</v>
+        <v>0.056783077623513582</v>
       </c>
       <c r="E31">
-        <v>0.90138673113115819</v>
+        <v>0.9052583132428158</v>
       </c>
       <c r="F31">
-        <v>0.030763219194792267</v>
+        <v>0.032008054809016848</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -947,19 +986,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.0047451003866206508</v>
+        <v>0.0051912301104851356</v>
       </c>
       <c r="C32">
-        <v>0.00058824698271628287</v>
+        <v>0.00013970109606603576</v>
       </c>
       <c r="D32">
-        <v>0.071589337806722594</v>
+        <v>0.062556459873269146</v>
       </c>
       <c r="E32">
-        <v>0.88919635102971784</v>
+        <v>0.90144907267737184</v>
       </c>
       <c r="F32">
-        <v>0.033880963794222632</v>
+        <v>0.030663536242807946</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -970,19 +1009,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.0026723798065170609</v>
+        <v>0.0076463811884169789</v>
       </c>
       <c r="C33">
-        <v>4.6045923658676626e-07</v>
+        <v>0.0015304683968286293</v>
       </c>
       <c r="D33">
-        <v>0.062877733143493042</v>
+        <v>0.052530477737640191</v>
       </c>
       <c r="E33">
-        <v>0.90715149152403385</v>
+        <v>0.90561756437370255</v>
       </c>
       <c r="F33">
-        <v>0.027297935066719365</v>
+        <v>0.032675108303411741</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -993,19 +1032,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.0073952056569064999</v>
+        <v>0.0057133803779319745</v>
       </c>
       <c r="C34">
-        <v>0.00025420151683493646</v>
+        <v>0.00061517994727783938</v>
       </c>
       <c r="D34">
-        <v>0.053666546227488392</v>
+        <v>0.059857501295674735</v>
       </c>
       <c r="E34">
-        <v>0.90811987731906685</v>
+        <v>0.90112776812389106</v>
       </c>
       <c r="F34">
-        <v>0.030564169279703301</v>
+        <v>0.032686170255224314</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -1016,19 +1055,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.0041104019287592358</v>
+        <v>0.0039384637132327972</v>
       </c>
       <c r="C35">
-        <v>0.00015892830594735631</v>
+        <v>3.3463485243782543e-06</v>
       </c>
       <c r="D35">
-        <v>0.065269651336033255</v>
+        <v>0.063143074434831331</v>
       </c>
       <c r="E35">
-        <v>0.90005613021419129</v>
+        <v>0.90493644701851716</v>
       </c>
       <c r="F35">
-        <v>0.030404888215068853</v>
+        <v>0.027978668484894241</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1039,19 +1078,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.006977066045268209</v>
+        <v>0.0082203870049612892</v>
       </c>
       <c r="C36">
-        <v>0.0040839812870585414</v>
+        <v>0.0019354455751872781</v>
       </c>
       <c r="D36">
-        <v>0.062219419666718193</v>
+        <v>0.059631426396630452</v>
       </c>
       <c r="E36">
-        <v>0.88934854886640291</v>
+        <v>0.89398757674171569</v>
       </c>
       <c r="F36">
-        <v>0.037370984134552122</v>
+        <v>0.036225164281505427</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -1062,19 +1101,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.0044244446602840302</v>
+        <v>0.0030962475551417619</v>
       </c>
       <c r="C37">
-        <v>0.00019755532623764199</v>
+        <v>1.5895607303841736e-05</v>
       </c>
       <c r="D37">
-        <v>0.064634797937950988</v>
+        <v>0.058568415757346275</v>
       </c>
       <c r="E37">
-        <v>0.90036064444861252</v>
+        <v>0.91037948910686339</v>
       </c>
       <c r="F37">
-        <v>0.030382557626914827</v>
+        <v>0.027939951973344715</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -1085,19 +1124,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.0047520190022886368</v>
+        <v>0.0035245312210869504</v>
       </c>
       <c r="C38">
-        <v>0.00016794852297449985</v>
+        <v>0.00014292519946371184</v>
       </c>
       <c r="D38">
-        <v>0.058478929475860308</v>
+        <v>0.061417664136054269</v>
       </c>
       <c r="E38">
-        <v>0.90618085606534382</v>
+        <v>0.90497127047600634</v>
       </c>
       <c r="F38">
-        <v>0.030420246933532777</v>
+        <v>0.029943608967388638</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -1108,19 +1147,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.0046920157828314159</v>
+        <v>0.005640508899708992</v>
       </c>
       <c r="C39">
-        <v>0.0002978447879084116</v>
+        <v>8.6300254855017973e-05</v>
       </c>
       <c r="D39">
-        <v>0.051249632777279293</v>
+        <v>0.052519948304493337</v>
       </c>
       <c r="E39">
-        <v>0.91364492073855941</v>
+        <v>0.91263902003659714</v>
       </c>
       <c r="F39">
-        <v>0.030115585913421582</v>
+        <v>0.029114222504345526</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -1131,19 +1170,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.0046599869128534262</v>
+        <v>0.0046560683155829653</v>
       </c>
       <c r="C40">
-        <v>7.8142467525961812e-07</v>
+        <v>0.00014259588306226407</v>
       </c>
       <c r="D40">
-        <v>0.056495546579099595</v>
+        <v>0.063051385475404287</v>
       </c>
       <c r="E40">
-        <v>0.9105478716949621</v>
+        <v>0.90138673113115819</v>
       </c>
       <c r="F40">
-        <v>0.028295813388409703</v>
+        <v>0.030763219194792267</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -1154,19 +1193,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0073671224451862388</v>
+        <v>0.0047451003866206508</v>
       </c>
       <c r="C41">
-        <v>0.00060686813071287227</v>
+        <v>0.00058824698271628287</v>
       </c>
       <c r="D41">
-        <v>0.054410279511810107</v>
+        <v>0.071589337806722594</v>
       </c>
       <c r="E41">
-        <v>0.90601972693327426</v>
+        <v>0.88919635102971784</v>
       </c>
       <c r="F41">
-        <v>0.031596002979016553</v>
+        <v>0.033880963794222632</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -1177,19 +1216,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.01195423645869893</v>
+        <v>0.0026723798065170609</v>
       </c>
       <c r="C42">
-        <v>0.018900797052694641</v>
+        <v>4.6045923658676626e-07</v>
       </c>
       <c r="D42">
-        <v>0.089085650743770312</v>
+        <v>0.062877733143493042</v>
       </c>
       <c r="E42">
-        <v>0.82442867518272533</v>
+        <v>0.90715149152403385</v>
       </c>
       <c r="F42">
-        <v>0.055630640562110804</v>
+        <v>0.027297935066719365</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -1200,19 +1239,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.0057196275488010156</v>
+        <v>0.0073952056569064999</v>
       </c>
       <c r="C43">
-        <v>8.0146098270358452e-06</v>
+        <v>0.00025420151683493646</v>
       </c>
       <c r="D43">
-        <v>0.068008670970647334</v>
+        <v>0.053666546227488392</v>
       </c>
       <c r="E43">
-        <v>0.897085526579672</v>
+        <v>0.90811987731906685</v>
       </c>
       <c r="F43">
-        <v>0.029178160291052562</v>
+        <v>0.030564169279703301</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -1223,19 +1262,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.0051352239825470979</v>
+        <v>0.0041104019287592358</v>
       </c>
       <c r="C44">
-        <v>0.0022256928544817306</v>
+        <v>0.00015892830594735631</v>
       </c>
       <c r="D44">
-        <v>0.071809017313064855</v>
+        <v>0.065269651336033255</v>
       </c>
       <c r="E44">
-        <v>0.88349065867437848</v>
+        <v>0.90005613021419129</v>
       </c>
       <c r="F44">
-        <v>0.037339407175527764</v>
+        <v>0.030404888215068853</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -1246,19 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.004504535965859988</v>
+        <v>0.006977066045268209</v>
       </c>
       <c r="C45">
-        <v>4.6402676626411227e-06</v>
+        <v>0.0040839812870585414</v>
       </c>
       <c r="D45">
-        <v>0.073072675976952564</v>
+        <v>0.062219419666718193</v>
       </c>
       <c r="E45">
-        <v>0.8942582616783209</v>
+        <v>0.88934854886640291</v>
       </c>
       <c r="F45">
-        <v>0.028159886111203836</v>
+        <v>0.037370984134552122</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -1269,21 +1308,320 @@
         <v>45</v>
       </c>
       <c r="B46">
+        <v>0.0044244446602840302</v>
+      </c>
+      <c r="C46">
+        <v>0.00019755532623764199</v>
+      </c>
+      <c r="D46">
+        <v>0.064634797937950988</v>
+      </c>
+      <c r="E46">
+        <v>0.90036064444861252</v>
+      </c>
+      <c r="F46">
+        <v>0.030382557626914827</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.0047520190022886368</v>
+      </c>
+      <c r="C47">
+        <v>0.00016794852297449985</v>
+      </c>
+      <c r="D47">
+        <v>0.058478929475860308</v>
+      </c>
+      <c r="E47">
+        <v>0.90618085606534382</v>
+      </c>
+      <c r="F47">
+        <v>0.030420246933532777</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.0046920157828314159</v>
+      </c>
+      <c r="C48">
+        <v>0.0002978447879084116</v>
+      </c>
+      <c r="D48">
+        <v>0.051249632777279293</v>
+      </c>
+      <c r="E48">
+        <v>0.91364492073855941</v>
+      </c>
+      <c r="F48">
+        <v>0.030115585913421582</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.0046599869128534262</v>
+      </c>
+      <c r="C49">
+        <v>7.8142467525961812e-07</v>
+      </c>
+      <c r="D49">
+        <v>0.056495546579099595</v>
+      </c>
+      <c r="E49">
+        <v>0.9105478716949621</v>
+      </c>
+      <c r="F49">
+        <v>0.028295813388409703</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.0073671224451862388</v>
+      </c>
+      <c r="C50">
+        <v>0.00060686813071287227</v>
+      </c>
+      <c r="D50">
+        <v>0.054410279511810107</v>
+      </c>
+      <c r="E50">
+        <v>0.90601972693327426</v>
+      </c>
+      <c r="F50">
+        <v>0.031596002979016553</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.0038690771331793923</v>
+      </c>
+      <c r="C51">
+        <v>2.128638916418203e-06</v>
+      </c>
+      <c r="D51">
+        <v>0.062328697942278417</v>
+      </c>
+      <c r="E51">
+        <v>0.90623663740019222</v>
+      </c>
+      <c r="F51">
+        <v>0.0275634588854335</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.01195423645869893</v>
+      </c>
+      <c r="C52">
+        <v>0.018900797052694641</v>
+      </c>
+      <c r="D52">
+        <v>0.089085650743770312</v>
+      </c>
+      <c r="E52">
+        <v>0.82442867518272533</v>
+      </c>
+      <c r="F52">
+        <v>0.055630640562110804</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.0057196275488010156</v>
+      </c>
+      <c r="C53">
+        <v>8.0146098270358452e-06</v>
+      </c>
+      <c r="D53">
+        <v>0.068008670970647334</v>
+      </c>
+      <c r="E53">
+        <v>0.897085526579672</v>
+      </c>
+      <c r="F53">
+        <v>0.029178160291052562</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.0051352239825470979</v>
+      </c>
+      <c r="C54">
+        <v>0.0022256928544817306</v>
+      </c>
+      <c r="D54">
+        <v>0.071809017313064855</v>
+      </c>
+      <c r="E54">
+        <v>0.88349065867437848</v>
+      </c>
+      <c r="F54">
+        <v>0.037339407175527764</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.014072915794457255</v>
+      </c>
+      <c r="C55">
+        <v>0.011159580907702185</v>
+      </c>
+      <c r="D55">
+        <v>0.10197369559123629</v>
+      </c>
+      <c r="E55">
+        <v>0.8169782579019349</v>
+      </c>
+      <c r="F55">
+        <v>0.055815549804669261</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.073614694703638808</v>
+      </c>
+      <c r="C56">
+        <v>0.24606501627537383</v>
+      </c>
+      <c r="D56">
+        <v>0.22019728042768302</v>
+      </c>
+      <c r="E56">
+        <v>0.30473866805660754</v>
+      </c>
+      <c r="F56">
+        <v>0.15538434053669684</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.0052746735846778622</v>
+      </c>
+      <c r="C57">
+        <v>7.0607174263895669e-05</v>
+      </c>
+      <c r="D57">
+        <v>0.053986632069538777</v>
+      </c>
+      <c r="E57">
+        <v>0.90988141065949335</v>
+      </c>
+      <c r="F57">
+        <v>0.030786676512026163</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.004504535965859988</v>
+      </c>
+      <c r="C58">
+        <v>4.6402676626411227e-06</v>
+      </c>
+      <c r="D58">
+        <v>0.073072675976952564</v>
+      </c>
+      <c r="E58">
+        <v>0.8942582616783209</v>
+      </c>
+      <c r="F58">
+        <v>0.028159886111203836</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>0.0081922577227015146</v>
       </c>
-      <c r="C46">
+      <c r="C59">
         <v>0.0046322692583014068</v>
       </c>
-      <c r="D46">
+      <c r="D59">
         <v>0.078900024800083846</v>
       </c>
-      <c r="E46">
+      <c r="E59">
         <v>0.8656417482724178</v>
       </c>
-      <c r="F46">
+      <c r="F59">
         <v>0.042633699946495414</v>
       </c>
-      <c r="G46">
+      <c r="G59">
         <v>4</v>
       </c>
     </row>
